--- a/MASA.xlsx
+++ b/MASA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk250102\OneDrive - Teradata\sumit\code\github\MASA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk250102\OneDrive - Teradata\sumit\code\github\masa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{FC9166DA-081C-45BC-A8C8-A4C74F0D87BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8ADFCDBC-CA4D-4A25-BD0C-67823A59C94F}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{FC9166DA-081C-45BC-A8C8-A4C74F0D87BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28BD1E27-1EAE-43FE-A539-97D8C1162DAE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B2612C8-D218-46EF-BD3A-33544CA7C3CA}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>configure Azure Disk Encryption for VMs</t>
   </si>
   <si>
-    <t>implement Azure Backupfor VMs</t>
-  </si>
-  <si>
     <t>Migrate servers to Azure</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>create, read, update, and delete data tables by using code</t>
+  </si>
+  <si>
+    <t>implement Azure Backup for VMs</t>
   </si>
 </sst>
 </file>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDAF227-BD3E-40A3-AE86-3098AE29343D}">
   <dimension ref="A2:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,7 +1226,7 @@
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1262,162 +1262,162 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1440,37 +1440,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1480,27 +1480,27 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1523,57 +1523,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1598,102 +1598,102 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1702,6 +1702,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DA061A48037DE43A20CD4156AB12F8A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b1cff2bea832525d1f00f5c779ecb73">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9d326e49-e00b-488e-b766-b877641bc7b3" xmlns:ns4="dd6f91c1-30bd-4dfc-88c4-4781ee5feab1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78fc8c1b025fdaeaed98fe755ba31a86" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1941,25 +1959,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72CB1129-649D-4833-9124-4A760E52D9E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E1DB3D-7E8B-4592-808C-6B169AD66C31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E263BE4-9EFF-4ACE-85C3-2971625B538A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1977,22 +1995,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E1DB3D-7E8B-4592-808C-6B169AD66C31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72CB1129-649D-4833-9124-4A760E52D9E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/MASA.xlsx
+++ b/MASA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk250102\OneDrive - Teradata\sumit\code\github\masa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{FC9166DA-081C-45BC-A8C8-A4C74F0D87BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28BD1E27-1EAE-43FE-A539-97D8C1162DAE}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{FC9166DA-081C-45BC-A8C8-A4C74F0D87BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B19F72A-234F-4F45-B6E5-1C3AD7C86847}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B2612C8-D218-46EF-BD3A-33544CA7C3CA}"/>
   </bookViews>
@@ -493,12 +493,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -513,10 +531,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDAF227-BD3E-40A3-AE86-3098AE29343D}">
   <dimension ref="A2:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -846,7 +873,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -854,73 +881,73 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -928,55 +955,55 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -984,43 +1011,43 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1028,37 +1055,37 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -1066,25 +1093,25 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -1092,43 +1119,43 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -1136,43 +1163,43 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -1180,31 +1207,31 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -1212,19 +1239,19 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
+      <c r="A70" s="3"/>
       <c r="B70" t="s">
         <v>144</v>
       </c>
@@ -1250,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45281A63-A3DE-4D4C-AAB2-7D658C0A9FE9}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,173 +1288,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
       <c r="B35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A32:A37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E78902B-02B9-4FAB-873F-32BEA43CDA95}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -1438,82 +1483,91 @@
     <col min="1" max="1" width="35.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A9:A14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAB2A78-7E99-45CC-B6AD-3F0497342536}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="104" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1521,62 +1575,69 @@
     <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1584,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B217994-A33B-4316-BFB1-E83A3A9BCC0E}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1596,130 +1657,122 @@
     <col min="2" max="2" width="69.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A20:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DA061A48037DE43A20CD4156AB12F8A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b1cff2bea832525d1f00f5c779ecb73">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9d326e49-e00b-488e-b766-b877641bc7b3" xmlns:ns4="dd6f91c1-30bd-4dfc-88c4-4781ee5feab1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78fc8c1b025fdaeaed98fe755ba31a86" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1959,25 +2012,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72CB1129-649D-4833-9124-4A760E52D9E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E1DB3D-7E8B-4592-808C-6B169AD66C31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E263BE4-9EFF-4ACE-85C3-2971625B538A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1995,4 +2048,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E1DB3D-7E8B-4592-808C-6B169AD66C31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72CB1129-649D-4833-9124-4A760E52D9E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>